--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ntn1-Unc5c.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H2">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J2">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.06908633333333335</v>
+        <v>0.06024766666666666</v>
       </c>
       <c r="N2">
-        <v>0.207259</v>
+        <v>0.180743</v>
       </c>
       <c r="O2">
-        <v>0.03902615288323431</v>
+        <v>0.03337856003285722</v>
       </c>
       <c r="P2">
-        <v>0.03902615288323431</v>
+        <v>0.03337856003285723</v>
       </c>
       <c r="Q2">
-        <v>0.1543991119493333</v>
+        <v>0.09186204735588888</v>
       </c>
       <c r="R2">
-        <v>1.389592007544</v>
+        <v>0.8267584262029999</v>
       </c>
       <c r="S2">
-        <v>0.009831404511568784</v>
+        <v>0.006883453132658344</v>
       </c>
       <c r="T2">
-        <v>0.009831404511568784</v>
+        <v>0.006883453132658347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H3">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J3">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>1.697343333333333</v>
       </c>
       <c r="N3">
-        <v>5.092029999999999</v>
+        <v>5.09203</v>
       </c>
       <c r="O3">
-        <v>0.9588116379313592</v>
+        <v>0.9403663159519869</v>
       </c>
       <c r="P3">
-        <v>0.9588116379313592</v>
+        <v>0.9403663159519869</v>
       </c>
       <c r="Q3">
-        <v>3.793345090053333</v>
+        <v>2.588007839847778</v>
       </c>
       <c r="R3">
-        <v>34.14010581047999</v>
+        <v>23.29207055863</v>
       </c>
       <c r="S3">
-        <v>0.2415422573448853</v>
+        <v>0.1939259050424651</v>
       </c>
       <c r="T3">
-        <v>0.2415422573448853</v>
+        <v>0.1939259050424652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.234872</v>
+        <v>1.524740333333333</v>
       </c>
       <c r="H4">
-        <v>6.704616</v>
+        <v>4.574221</v>
       </c>
       <c r="I4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390968</v>
       </c>
       <c r="J4">
-        <v>0.2519183620528573</v>
+        <v>0.2062237893390969</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.003827666666666667</v>
+        <v>0.04738999999999999</v>
       </c>
       <c r="N4">
-        <v>0.011483</v>
+        <v>0.14217</v>
       </c>
       <c r="O4">
-        <v>0.002162209185406566</v>
+        <v>0.02625512401515583</v>
       </c>
       <c r="P4">
-        <v>0.002162209185406566</v>
+        <v>0.02625512401515584</v>
       </c>
       <c r="Q4">
-        <v>0.008554345058666667</v>
+        <v>0.07225744439666665</v>
       </c>
       <c r="R4">
-        <v>0.07698910552799999</v>
+        <v>0.6503169995699999</v>
       </c>
       <c r="S4">
-        <v>0.0005447001964032651</v>
+        <v>0.005414431163973358</v>
       </c>
       <c r="T4">
-        <v>0.0005447001964032651</v>
+        <v>0.005414431163973361</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I5">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J5">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.06908633333333335</v>
+        <v>0.06024766666666666</v>
       </c>
       <c r="N5">
-        <v>0.207259</v>
+        <v>0.180743</v>
       </c>
       <c r="O5">
-        <v>0.03902615288323431</v>
+        <v>0.03337856003285722</v>
       </c>
       <c r="P5">
-        <v>0.03902615288323431</v>
+        <v>0.03337856003285723</v>
       </c>
       <c r="Q5">
-        <v>0.220079834481</v>
+        <v>0.191923581237</v>
       </c>
       <c r="R5">
-        <v>1.980718510329</v>
+        <v>1.727312231133</v>
       </c>
       <c r="S5">
-        <v>0.01401364198475338</v>
+        <v>0.01438131431339306</v>
       </c>
       <c r="T5">
-        <v>0.01401364198475338</v>
+        <v>0.01438131431339307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I6">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J6">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,25 +809,25 @@
         <v>1.697343333333333</v>
       </c>
       <c r="N6">
-        <v>5.092029999999999</v>
+        <v>5.09203</v>
       </c>
       <c r="O6">
-        <v>0.9588116379313592</v>
+        <v>0.9403663159519869</v>
       </c>
       <c r="P6">
-        <v>0.9588116379313592</v>
+        <v>0.9403663159519869</v>
       </c>
       <c r="Q6">
-        <v>5.407017883769999</v>
+        <v>5.40701788377</v>
       </c>
       <c r="R6">
-        <v>48.66316095392999</v>
+        <v>48.66316095393</v>
       </c>
       <c r="S6">
-        <v>0.3442933015966677</v>
+        <v>0.4051613834185936</v>
       </c>
       <c r="T6">
-        <v>0.3442933015966675</v>
+        <v>0.4051613834185938</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>9.556730999999999</v>
       </c>
       <c r="I7">
-        <v>0.3590833569140672</v>
+        <v>0.4308548451232278</v>
       </c>
       <c r="J7">
-        <v>0.3590833569140671</v>
+        <v>0.4308548451232279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.003827666666666667</v>
+        <v>0.04738999999999999</v>
       </c>
       <c r="N7">
-        <v>0.011483</v>
+        <v>0.14217</v>
       </c>
       <c r="O7">
-        <v>0.002162209185406566</v>
+        <v>0.02625512401515583</v>
       </c>
       <c r="P7">
-        <v>0.002162209185406566</v>
+        <v>0.02625512401515584</v>
       </c>
       <c r="Q7">
-        <v>0.012193326897</v>
+        <v>0.15096449403</v>
       </c>
       <c r="R7">
-        <v>0.109739942073</v>
+        <v>1.35868044627</v>
       </c>
       <c r="S7">
-        <v>0.0007764133326462207</v>
+        <v>0.01131214739124111</v>
       </c>
       <c r="T7">
-        <v>0.0007764133326462205</v>
+        <v>0.01131214739124111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H8">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I8">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J8">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06908633333333335</v>
+        <v>0.06024766666666666</v>
       </c>
       <c r="N8">
-        <v>0.207259</v>
+        <v>0.180743</v>
       </c>
       <c r="O8">
-        <v>0.03902615288323431</v>
+        <v>0.03337856003285722</v>
       </c>
       <c r="P8">
-        <v>0.03902615288323431</v>
+        <v>0.03337856003285723</v>
       </c>
       <c r="Q8">
-        <v>0.02665470489644445</v>
+        <v>0.01224712559744444</v>
       </c>
       <c r="R8">
-        <v>0.239892344068</v>
+        <v>0.110224130377</v>
       </c>
       <c r="S8">
-        <v>0.001697245422366368</v>
+        <v>0.0009177077747155707</v>
       </c>
       <c r="T8">
-        <v>0.001697245422366368</v>
+        <v>0.0009177077747155711</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H9">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I9">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J9">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,25 +995,25 @@
         <v>1.697343333333333</v>
       </c>
       <c r="N9">
-        <v>5.092029999999999</v>
+        <v>5.09203</v>
       </c>
       <c r="O9">
-        <v>0.9588116379313592</v>
+        <v>0.9403663159519869</v>
       </c>
       <c r="P9">
-        <v>0.9588116379313592</v>
+        <v>0.9403663159519869</v>
       </c>
       <c r="Q9">
-        <v>0.6548644786177776</v>
+        <v>0.3450353870188889</v>
       </c>
       <c r="R9">
-        <v>5.893780307559999</v>
+        <v>3.10531848317</v>
       </c>
       <c r="S9">
-        <v>0.04169866981917416</v>
+        <v>0.02585436514877438</v>
       </c>
       <c r="T9">
-        <v>0.04169866981917416</v>
+        <v>0.02585436514877439</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.3858173333333333</v>
+        <v>0.2032796666666667</v>
       </c>
       <c r="H10">
-        <v>1.157452</v>
+        <v>0.609839</v>
       </c>
       <c r="I10">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="J10">
-        <v>0.04348994961006027</v>
+        <v>0.02749392945088694</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.003827666666666667</v>
+        <v>0.04738999999999999</v>
       </c>
       <c r="N10">
-        <v>0.011483</v>
+        <v>0.14217</v>
       </c>
       <c r="O10">
-        <v>0.002162209185406566</v>
+        <v>0.02625512401515583</v>
       </c>
       <c r="P10">
-        <v>0.002162209185406566</v>
+        <v>0.02625512401515584</v>
       </c>
       <c r="Q10">
-        <v>0.001476780146222222</v>
+        <v>0.009633423403333332</v>
       </c>
       <c r="R10">
-        <v>0.013291021316</v>
+        <v>0.08670081063</v>
       </c>
       <c r="S10">
-        <v>9.403436851974102E-05</v>
+        <v>0.0007218565273969818</v>
       </c>
       <c r="T10">
-        <v>9.403436851974102E-05</v>
+        <v>0.0007218565273969821</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H11">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I11">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J11">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.06908633333333335</v>
+        <v>0.06024766666666666</v>
       </c>
       <c r="N11">
-        <v>0.207259</v>
+        <v>0.180743</v>
       </c>
       <c r="O11">
-        <v>0.03902615288323431</v>
+        <v>0.03337856003285722</v>
       </c>
       <c r="P11">
-        <v>0.03902615288323431</v>
+        <v>0.03337856003285723</v>
       </c>
       <c r="Q11">
-        <v>0.1911561501676667</v>
+        <v>0.1241832536704444</v>
       </c>
       <c r="R11">
-        <v>1.720405351509</v>
+        <v>1.117649283034</v>
       </c>
       <c r="S11">
-        <v>0.01217191869464397</v>
+        <v>0.009305362019527516</v>
       </c>
       <c r="T11">
-        <v>0.01217191869464397</v>
+        <v>0.009305362019527523</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H12">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I12">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J12">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,25 +1181,25 @@
         <v>1.697343333333333</v>
       </c>
       <c r="N12">
-        <v>5.092029999999999</v>
+        <v>5.09203</v>
       </c>
       <c r="O12">
-        <v>0.9588116379313592</v>
+        <v>0.9403663159519869</v>
       </c>
       <c r="P12">
-        <v>0.9588116379313592</v>
+        <v>0.9403663159519869</v>
       </c>
       <c r="Q12">
-        <v>4.696408123836666</v>
+        <v>3.498585578348889</v>
       </c>
       <c r="R12">
-        <v>42.26767311453</v>
+        <v>31.48727020514</v>
       </c>
       <c r="S12">
-        <v>0.2990450361658019</v>
+        <v>0.2621577741007658</v>
       </c>
       <c r="T12">
-        <v>0.2990450361658019</v>
+        <v>0.2621577741007659</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.766917</v>
+        <v>2.061212666666667</v>
       </c>
       <c r="H13">
-        <v>8.300751</v>
+        <v>6.183638</v>
       </c>
       <c r="I13">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683977</v>
       </c>
       <c r="J13">
-        <v>0.3118913291571982</v>
+        <v>0.2787826080683978</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.003827666666666667</v>
+        <v>0.04738999999999999</v>
       </c>
       <c r="N13">
-        <v>0.011483</v>
+        <v>0.14217</v>
       </c>
       <c r="O13">
-        <v>0.002162209185406566</v>
+        <v>0.02625512401515583</v>
       </c>
       <c r="P13">
-        <v>0.002162209185406566</v>
+        <v>0.02625512401515584</v>
       </c>
       <c r="Q13">
-        <v>0.01059083597033333</v>
+        <v>0.09768086827333332</v>
       </c>
       <c r="R13">
-        <v>0.095317523733</v>
+        <v>0.87912781446</v>
       </c>
       <c r="S13">
-        <v>0.0006743742967523569</v>
+        <v>0.007319471948104363</v>
       </c>
       <c r="T13">
-        <v>0.0006743742967523568</v>
+        <v>0.007319471948104368</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H14">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I14">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J14">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.06908633333333335</v>
+        <v>0.06024766666666666</v>
       </c>
       <c r="N14">
-        <v>0.207259</v>
+        <v>0.180743</v>
       </c>
       <c r="O14">
-        <v>0.03902615288323431</v>
+        <v>0.03337856003285722</v>
       </c>
       <c r="P14">
-        <v>0.03902615288323431</v>
+        <v>0.03337856003285723</v>
       </c>
       <c r="Q14">
-        <v>0.02060364021877778</v>
+        <v>0.02523234535922222</v>
       </c>
       <c r="R14">
-        <v>0.185432761969</v>
+        <v>0.227091108233</v>
       </c>
       <c r="S14">
-        <v>0.001311942269901809</v>
+        <v>0.001890722792562724</v>
       </c>
       <c r="T14">
-        <v>0.001311942269901809</v>
+        <v>0.001890722792562725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H15">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I15">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J15">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,25 +1367,25 @@
         <v>1.697343333333333</v>
       </c>
       <c r="N15">
-        <v>5.092029999999999</v>
+        <v>5.09203</v>
       </c>
       <c r="O15">
-        <v>0.9588116379313592</v>
+        <v>0.9403663159519869</v>
       </c>
       <c r="P15">
-        <v>0.9588116379313592</v>
+        <v>0.9403663159519869</v>
       </c>
       <c r="Q15">
-        <v>0.506199268081111</v>
+        <v>0.7108649272144445</v>
       </c>
       <c r="R15">
-        <v>4.55579341273</v>
+        <v>6.397784344930001</v>
       </c>
       <c r="S15">
-        <v>0.03223237300483022</v>
+        <v>0.05326688824138789</v>
       </c>
       <c r="T15">
-        <v>0.03223237300483022</v>
+        <v>0.0532668882413879</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2982303333333333</v>
+        <v>0.4188103333333333</v>
       </c>
       <c r="H16">
-        <v>0.894691</v>
+        <v>1.256431</v>
       </c>
       <c r="I16">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839063</v>
       </c>
       <c r="J16">
-        <v>0.03361700226581701</v>
+        <v>0.05664482801839064</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.003827666666666667</v>
+        <v>0.04738999999999999</v>
       </c>
       <c r="N16">
-        <v>0.011483</v>
+        <v>0.14217</v>
       </c>
       <c r="O16">
-        <v>0.002162209185406566</v>
+        <v>0.02625512401515583</v>
       </c>
       <c r="P16">
-        <v>0.002162209185406566</v>
+        <v>0.02625512401515584</v>
       </c>
       <c r="Q16">
-        <v>0.001141526305888889</v>
+        <v>0.01984742169666667</v>
       </c>
       <c r="R16">
-        <v>0.010273736753</v>
+        <v>0.17862679527</v>
       </c>
       <c r="S16">
-        <v>7.268699108498291E-05</v>
+        <v>0.00148721698444002</v>
       </c>
       <c r="T16">
-        <v>7.268699108498291E-05</v>
+        <v>0.00148721698444002</v>
       </c>
     </row>
   </sheetData>
